--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f351d28db509a5b/Scans/Pictures/Screenshots/Github_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC104899B91946CA5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F569F412-B69D-4B6B-B1F6-37D33590E201}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC104899B91946CA5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3BE0D83-3C74-4288-BD4C-60F3A9CD3ABA}"/>
   <bookViews>
     <workbookView xWindow="3684" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>marcus</t>
+  </si>
+  <si>
+    <t>judy</t>
+  </si>
+  <si>
+    <t>jacob</t>
   </si>
 </sst>
 </file>
@@ -92,6 +98,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,6 +407,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>877</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>798</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
